--- a/src/test/resources/excelData/fbData.xlsx
+++ b/src/test/resources/excelData/fbData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19dcebdf543d4f4e/Desktop/MonikaWS/SeleniumMaven/src/test/resources/excelData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{688A07DD-04B2-4284-9B43-ADECF94B0D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DC7CAF1-0321-485B-9B42-2C46CADE2A8C}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{688A07DD-04B2-4284-9B43-ADECF94B0D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B908164-152B-4714-8B0F-28C5FACDA324}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1970" windowWidth="14400" windowHeight="7270" xr2:uid="{106A3809-DF31-4A9D-8B75-A6C3AB12CA88}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{106A3809-DF31-4A9D-8B75-A6C3AB12CA88}"/>
   </bookViews>
   <sheets>
     <sheet name="FbLogin" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
@@ -47,19 +47,7 @@
     <t>password1</t>
   </si>
   <si>
-    <t>password2</t>
-  </si>
-  <si>
-    <t>password3</t>
-  </si>
-  <si>
     <t>username1</t>
-  </si>
-  <si>
-    <t>username2</t>
-  </si>
-  <si>
-    <t>username3</t>
   </si>
 </sst>
 </file>
@@ -137,6 +125,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,9 +448,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794B9324-3867-4FB4-98FD-AAAF9C46B3DD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -472,26 +466,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
